--- a/datasets/hr-cost/Employee Cost Estimation.xlsx
+++ b/datasets/hr-cost/Employee Cost Estimation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tykiwada/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tykiwada/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B473BE-F319-384C-AF86-9B1F55FE31B8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CF856A-781E-B345-B152-5B2BFF8A7B07}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{C931F258-1848-D744-B11D-EF649715C627}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" activeTab="1" xr2:uid="{C931F258-1848-D744-B11D-EF649715C627}"/>
   </bookViews>
   <sheets>
     <sheet name="US Calculations" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="138">
   <si>
     <t>Average, Annual Employee Hours Worked</t>
   </si>
@@ -428,7 +428,19 @@
     <t>Currently updating.</t>
   </si>
   <si>
-    <t>Japanese Corporate Tax (In progress)</t>
+    <t>Japanese Corporate Tax  and extra costs</t>
+  </si>
+  <si>
+    <t>Other Non included Training/Hring Costs</t>
+  </si>
+  <si>
+    <t>Japanese Corporate Tax</t>
+  </si>
+  <si>
+    <t>Tax per employee</t>
+  </si>
+  <si>
+    <t>Other extra costs</t>
   </si>
 </sst>
 </file>
@@ -733,7 +745,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -813,6 +825,10 @@
     <xf numFmtId="164" fontId="2" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -858,7 +874,17 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1177,8 +1203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C59EFF6A-23EF-724E-9796-2205030E48DD}">
   <dimension ref="A1:AR73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView zoomScale="87" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1210,8 +1236,8 @@
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
@@ -1305,16 +1331,16 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B8" s="6"/>
-      <c r="C8" s="65" t="s">
+      <c r="C8" s="67" t="s">
         <v>113</v>
       </c>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65" t="s">
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67" t="s">
         <v>114</v>
       </c>
-      <c r="G8" s="65"/>
-      <c r="H8" s="66"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="68"/>
       <c r="J8" s="31"/>
       <c r="K8" s="54">
         <f>IF(C9="",F9,C13*C15)</f>
@@ -2038,14 +2064,14 @@
       <c r="B32" s="14">
         <v>6</v>
       </c>
-      <c r="C32" s="61" t="s">
+      <c r="C32" s="63" t="s">
         <v>128</v>
       </c>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="63"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="65"/>
       <c r="AO32" s="24"/>
       <c r="AP32" s="24"/>
       <c r="AQ32" s="24"/>
@@ -2284,10 +2310,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85E1295-1AAF-894A-905D-FF560C96525A}">
-  <dimension ref="A1:AR73"/>
+  <dimension ref="A1:AR85"/>
   <sheetViews>
-    <sheetView zoomScale="86" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="86" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2318,8 +2344,8 @@
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
@@ -2374,17 +2400,6 @@
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="5"/>
-      <c r="R6" s="14">
-        <v>3</v>
-      </c>
-      <c r="S6" s="16"/>
-      <c r="T6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="5"/>
       <c r="Y6" s="18"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
@@ -2402,27 +2417,20 @@
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
       <c r="P7" s="8"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="8"/>
       <c r="Y7" s="18"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B8" s="6"/>
-      <c r="C8" s="65" t="s">
+      <c r="C8" s="67" t="s">
         <v>131</v>
       </c>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65" t="s">
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67" t="s">
         <v>130</v>
       </c>
-      <c r="G8" s="65"/>
-      <c r="H8" s="66"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="68"/>
       <c r="J8" s="31"/>
       <c r="K8" s="54">
         <f>IF(C9="",F9,C13*C15)</f>
@@ -2435,21 +2443,6 @@
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
       <c r="P8" s="8"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="55">
-        <v>40000</v>
-      </c>
-      <c r="T8" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="U8" s="8"/>
-      <c r="V8" s="57">
-        <v>50000</v>
-      </c>
-      <c r="W8" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="X8" s="8"/>
       <c r="Y8" s="18"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
@@ -2473,13 +2466,6 @@
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
       <c r="P9" s="8"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="8"/>
       <c r="Y9" s="18"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
@@ -2506,21 +2492,6 @@
       <c r="N10" s="17"/>
       <c r="O10" s="7"/>
       <c r="P10" s="8"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="55">
-        <v>8000</v>
-      </c>
-      <c r="T10" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="U10" s="8"/>
-      <c r="V10" s="57">
-        <v>50000</v>
-      </c>
-      <c r="W10" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="X10" s="8"/>
       <c r="Y10" s="18"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
@@ -2544,13 +2515,6 @@
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
       <c r="P11" s="8"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="8"/>
       <c r="Y11" s="18"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
@@ -2564,7 +2528,7 @@
       <c r="G12" s="7"/>
       <c r="H12" s="8"/>
       <c r="J12" s="31"/>
-      <c r="K12" s="76">
+      <c r="K12" s="62">
         <f>C13</f>
         <v>2000</v>
       </c>
@@ -2575,21 +2539,6 @@
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
       <c r="P12" s="8"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="55">
-        <v>40000</v>
-      </c>
-      <c r="T12" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="U12" s="8"/>
-      <c r="V12" s="29">
-        <v>40</v>
-      </c>
-      <c r="W12" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="X12" s="8"/>
       <c r="Y12" s="18"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
@@ -2616,13 +2565,13 @@
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
       <c r="P13" s="8"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="8"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="18"/>
+      <c r="W13" s="18"/>
+      <c r="X13" s="18"/>
       <c r="Y13" s="18"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
@@ -2644,22 +2593,13 @@
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
       <c r="P14" s="8"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="55">
-        <v>12000</v>
-      </c>
-      <c r="T14" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="U14" s="8"/>
-      <c r="V14" s="54">
-        <f>IF(S8="",S16/V12,(SUM(S8,S10,S12,S14,V8,V10)/V12))</f>
-        <v>5000</v>
-      </c>
-      <c r="W14" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="X14" s="8"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="18"/>
+      <c r="V14" s="18"/>
+      <c r="W14" s="18"/>
+      <c r="X14" s="18"/>
       <c r="Y14" s="18"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
@@ -2679,17 +2619,13 @@
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
       <c r="P15" s="8"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="X15" s="8"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="18"/>
+      <c r="W15" s="18"/>
+      <c r="X15" s="18"/>
       <c r="Y15" s="18"/>
     </row>
     <row r="16" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2707,548 +2643,727 @@
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
       <c r="P16" s="11"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="56">
-        <v>200000</v>
-      </c>
-      <c r="T16" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="U16" s="10"/>
-      <c r="V16" s="10"/>
-      <c r="W16" s="10"/>
-      <c r="X16" s="11"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="18"/>
+      <c r="U16" s="18"/>
+      <c r="V16" s="18"/>
+      <c r="W16" s="18"/>
+      <c r="X16" s="18"/>
       <c r="Y16" s="18"/>
     </row>
-    <row r="18" spans="2:44" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:44" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="14">
+    <row r="17" spans="2:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="78"/>
+      <c r="M17" s="78"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="79"/>
+      <c r="T17" s="18"/>
+      <c r="U17" s="18"/>
+      <c r="V17" s="18"/>
+      <c r="W17" s="18"/>
+      <c r="X17" s="18"/>
+      <c r="Y17" s="18"/>
+    </row>
+    <row r="18" spans="2:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="14">
+        <v>3</v>
+      </c>
+      <c r="C18" s="16"/>
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="5"/>
+      <c r="J18" s="14">
         <v>4</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="3" t="s">
+      <c r="K18" s="61"/>
+      <c r="L18" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="5"/>
-      <c r="J19" s="14">
-        <v>5</v>
-      </c>
-      <c r="K19" s="16"/>
-      <c r="L19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="5"/>
-      <c r="R19" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="S19" s="16"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="5"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="5"/>
+      <c r="R18" s="81"/>
+      <c r="S18" s="82"/>
+      <c r="T18" s="82"/>
+      <c r="U18" s="82"/>
+      <c r="V18" s="82"/>
+      <c r="W18" s="82"/>
+      <c r="X18" s="82"/>
+      <c r="Y18" s="18"/>
+    </row>
+    <row r="19" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="8"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="8"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="18"/>
+      <c r="V19" s="18"/>
+      <c r="W19" s="18"/>
+      <c r="X19" s="18"/>
       <c r="Y19" s="18"/>
     </row>
-    <row r="20" spans="2:44" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B20" s="6"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
+      <c r="C20" s="55">
+        <v>40000</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="57">
+        <v>50000</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" s="8"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="M20" s="8"/>
+      <c r="N20" s="59">
+        <v>45000</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>123</v>
+      </c>
       <c r="P20" s="8"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="7"/>
-      <c r="W20" s="7"/>
-      <c r="X20" s="8"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="18"/>
+      <c r="V20" s="18"/>
+      <c r="W20" s="18"/>
+      <c r="X20" s="18"/>
       <c r="Y20" s="18"/>
     </row>
-    <row r="21" spans="2:44" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B21" s="6"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="17"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
       <c r="H21" s="8"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="54">
-        <f>K8</f>
-        <v>70000</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="M21" s="8"/>
-      <c r="N21" s="54">
-        <f>K12</f>
-        <v>2000</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>98</v>
-      </c>
+      <c r="J21" s="6"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
       <c r="P21" s="8"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="51">
-        <v>3</v>
-      </c>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="V21" s="7"/>
-      <c r="W21" s="7"/>
-      <c r="X21" s="8"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="18"/>
+      <c r="V21" s="18"/>
+      <c r="W21" s="18"/>
+      <c r="X21" s="18"/>
       <c r="Y21" s="18"/>
-      <c r="AO21" s="24"/>
-      <c r="AP21" s="24"/>
-      <c r="AQ21" s="24"/>
-      <c r="AR21" s="24"/>
-    </row>
-    <row r="22" spans="2:44" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B22" s="6"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
+      <c r="C22" s="55">
+        <v>8000</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="57">
+        <v>50000</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>14</v>
+      </c>
       <c r="H22" s="8"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="7"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="29"/>
       <c r="L22" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
+        <v>136</v>
+      </c>
+      <c r="M22" s="8"/>
+      <c r="N22" s="54">
+        <f>N20/F24</f>
+        <v>1125</v>
+      </c>
       <c r="O22" s="7" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="P22" s="8"/>
-      <c r="R22" s="6"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
-      <c r="W22" s="7"/>
-      <c r="X22" s="8"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="18"/>
+      <c r="U22" s="18"/>
+      <c r="V22" s="78"/>
+      <c r="W22" s="18"/>
+      <c r="X22" s="18"/>
       <c r="Y22" s="18"/>
-      <c r="AO22" s="24"/>
-      <c r="AP22" s="24"/>
-      <c r="AQ22" s="24"/>
-      <c r="AR22" s="24"/>
-    </row>
-    <row r="23" spans="2:44" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B23" s="6"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="17"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
       <c r="H23" s="8"/>
       <c r="J23" s="6"/>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
-      <c r="M23" s="28"/>
+      <c r="M23" s="7"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
       <c r="P23" s="8"/>
-      <c r="R23" s="31"/>
-      <c r="S23" s="52">
-        <f>(K21+K24+N24+K27)/N21</f>
-        <v>39.5625</v>
-      </c>
-      <c r="T23" s="28"/>
-      <c r="U23" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="V23" s="7"/>
-      <c r="W23" s="7"/>
-      <c r="X23" s="8"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="18"/>
+      <c r="U23" s="18"/>
+      <c r="V23" s="18"/>
+      <c r="W23" s="18"/>
+      <c r="X23" s="18"/>
       <c r="Y23" s="18"/>
-      <c r="AO23" s="24"/>
-      <c r="AP23" s="24"/>
-      <c r="AQ23" s="24"/>
-      <c r="AR23" s="24"/>
-    </row>
-    <row r="24" spans="2:44" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B24" s="6"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="17"/>
+      <c r="C24" s="55">
+        <v>40000</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="8"/>
+      <c r="F24" s="29">
+        <v>40</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>15</v>
+      </c>
       <c r="H24" s="8"/>
       <c r="J24" s="31"/>
-      <c r="K24" s="54">
-        <f>V14</f>
-        <v>5000</v>
-      </c>
+      <c r="K24" s="84"/>
       <c r="L24" s="7" t="s">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="M24" s="8"/>
-      <c r="N24" s="54">
-        <f>IF(F26="",F23,SUM(F26:F29))</f>
-        <v>0</v>
+      <c r="N24" s="59">
+        <v>120000</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="P24" s="8"/>
-      <c r="R24" s="6"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="7"/>
-      <c r="U24" s="7"/>
-      <c r="V24" s="7"/>
-      <c r="W24" s="7"/>
-      <c r="X24" s="8"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="18"/>
+      <c r="U24" s="18"/>
+      <c r="V24" s="18"/>
+      <c r="W24" s="18"/>
+      <c r="X24" s="18"/>
       <c r="Y24" s="18"/>
-      <c r="AO24" s="24"/>
-      <c r="AP24" s="24"/>
-      <c r="AQ24" s="24"/>
-      <c r="AR24" s="24"/>
-    </row>
-    <row r="25" spans="2:44" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B25" s="6"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="17"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
       <c r="E25" s="7"/>
-      <c r="F25" s="17"/>
+      <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="8"/>
       <c r="J25" s="6"/>
       <c r="K25" s="7"/>
-      <c r="L25" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="M25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="80"/>
       <c r="N25" s="7"/>
-      <c r="O25" s="7" t="s">
-        <v>97</v>
-      </c>
+      <c r="O25" s="7"/>
       <c r="P25" s="8"/>
-      <c r="R25" s="31"/>
-      <c r="S25" s="52">
-        <f>K21+K24+N24+K27</f>
-        <v>79125</v>
-      </c>
-      <c r="T25" s="7"/>
-      <c r="U25" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="V25" s="7"/>
-      <c r="W25" s="7"/>
-      <c r="X25" s="8"/>
+      <c r="R25" s="83"/>
+      <c r="S25" s="18"/>
+      <c r="T25" s="18"/>
+      <c r="U25" s="18"/>
+      <c r="V25" s="18"/>
+      <c r="W25" s="18"/>
+      <c r="X25" s="18"/>
       <c r="Y25" s="18"/>
-      <c r="AO25" s="24"/>
-      <c r="AP25" s="24"/>
-      <c r="AQ25" s="24"/>
-      <c r="AR25" s="24"/>
-    </row>
-    <row r="26" spans="2:44" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B26" s="6"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
+      <c r="C26" s="55">
+        <v>12000</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>26</v>
+      </c>
       <c r="E26" s="8"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="17"/>
+      <c r="F26" s="54">
+        <f>IF(C20="",C28/F24,(SUM(C20,C22,C24,C26,F20,F22)/F24))</f>
+        <v>5000</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>16</v>
+      </c>
       <c r="H26" s="8"/>
       <c r="J26" s="6"/>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="7"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="54">
+        <f>N24/F24</f>
+        <v>3000</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>126</v>
+      </c>
       <c r="P26" s="8"/>
-      <c r="R26" s="6"/>
-      <c r="S26" s="7"/>
-      <c r="T26" s="7"/>
-      <c r="U26" s="7"/>
-      <c r="V26" s="7"/>
-      <c r="W26" s="7"/>
-      <c r="X26" s="8"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="18"/>
+      <c r="T26" s="18"/>
+      <c r="U26" s="18"/>
+      <c r="V26" s="18"/>
+      <c r="W26" s="18"/>
+      <c r="X26" s="18"/>
       <c r="Y26" s="18"/>
-      <c r="AO26" s="24"/>
-      <c r="AP26" s="24"/>
-      <c r="AQ26" s="24"/>
-      <c r="AR26" s="24"/>
-    </row>
-    <row r="27" spans="2:44" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B27" s="6"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="17"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="17" t="s">
+        <v>17</v>
+      </c>
       <c r="H27" s="8"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="54">
-        <f>C36+C40</f>
-        <v>4125</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="M27" s="28"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="7"/>
       <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
+      <c r="O27" s="17"/>
       <c r="P27" s="8"/>
-      <c r="R27" s="31"/>
-      <c r="S27" s="52">
-        <f>S25*S21</f>
-        <v>237375</v>
-      </c>
-      <c r="T27" s="7"/>
-      <c r="U27" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="V27" s="7"/>
-      <c r="W27" s="7"/>
-      <c r="X27" s="8"/>
+      <c r="R27" s="18"/>
+      <c r="S27" s="18"/>
+      <c r="T27" s="18"/>
+      <c r="U27" s="18"/>
+      <c r="V27" s="18"/>
+      <c r="W27" s="18"/>
+      <c r="X27" s="18"/>
       <c r="Y27" s="18"/>
-      <c r="AO27" s="24"/>
-      <c r="AP27" s="24"/>
-      <c r="AQ27" s="24"/>
-      <c r="AR27" s="24"/>
-    </row>
-    <row r="28" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="B28" s="6"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="8"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="8"/>
-      <c r="R28" s="6"/>
-      <c r="S28" s="7"/>
-      <c r="T28" s="7"/>
-      <c r="U28" s="7"/>
-      <c r="V28" s="7"/>
-      <c r="W28" s="7"/>
-      <c r="X28" s="8"/>
+    </row>
+    <row r="28" spans="2:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="9"/>
+      <c r="C28" s="56">
+        <v>200000</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="11"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="11"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="18"/>
+      <c r="T28" s="78"/>
+      <c r="U28" s="78"/>
+      <c r="V28" s="18"/>
+      <c r="W28" s="18"/>
+      <c r="X28" s="18"/>
       <c r="Y28" s="18"/>
-      <c r="AO28" s="24"/>
-      <c r="AP28" s="24"/>
-      <c r="AQ28" s="24"/>
-      <c r="AR28" s="24"/>
-    </row>
-    <row r="29" spans="2:44" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="9"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="11"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="11"/>
-      <c r="R29" s="9"/>
-      <c r="S29" s="10"/>
-      <c r="T29" s="10"/>
-      <c r="U29" s="10"/>
-      <c r="V29" s="10"/>
-      <c r="W29" s="10"/>
-      <c r="X29" s="11"/>
-      <c r="Y29" s="18"/>
-      <c r="AO29" s="24"/>
-      <c r="AP29" s="24"/>
-      <c r="AQ29" s="24"/>
-      <c r="AR29" s="24"/>
-    </row>
-    <row r="30" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="B30" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="AO30" s="24"/>
-      <c r="AP30" s="24"/>
-      <c r="AQ30" s="24"/>
-      <c r="AR30" s="24"/>
-    </row>
-    <row r="31" spans="2:44" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AO31" s="24"/>
-      <c r="AP31" s="24"/>
-      <c r="AQ31" s="24"/>
-      <c r="AR31" s="24"/>
-    </row>
-    <row r="32" spans="2:44" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="14">
-        <v>6</v>
-      </c>
-      <c r="C32" s="61" t="s">
-        <v>128</v>
-      </c>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="63"/>
-      <c r="AO32" s="24"/>
-      <c r="AP32" s="24"/>
-      <c r="AQ32" s="24"/>
-      <c r="AR32" s="25"/>
+    </row>
+    <row r="29" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="R29" s="18"/>
+      <c r="S29" s="18"/>
+      <c r="T29" s="18"/>
+      <c r="U29" s="18"/>
+      <c r="V29" s="18"/>
+      <c r="W29" s="18"/>
+      <c r="X29" s="18"/>
+    </row>
+    <row r="30" spans="2:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R30" s="18"/>
+      <c r="S30" s="18"/>
+      <c r="T30" s="18"/>
+      <c r="U30" s="18"/>
+      <c r="V30" s="18"/>
+      <c r="W30" s="18"/>
+      <c r="X30" s="18"/>
+    </row>
+    <row r="31" spans="2:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="14">
+        <v>5</v>
+      </c>
+      <c r="C31" s="16"/>
+      <c r="D31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="5"/>
+      <c r="J31" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="K31" s="16"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="5"/>
+      <c r="R31" s="18"/>
+      <c r="S31" s="18"/>
+      <c r="T31" s="18"/>
+      <c r="U31" s="18"/>
+      <c r="V31" s="18"/>
+      <c r="W31" s="18"/>
+      <c r="X31" s="18"/>
+      <c r="Y31" s="18"/>
+    </row>
+    <row r="32" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B32" s="6"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="8"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="8"/>
+      <c r="R32" s="18"/>
+      <c r="S32" s="18"/>
+      <c r="T32" s="18"/>
+      <c r="U32" s="18"/>
+      <c r="V32" s="18"/>
+      <c r="W32" s="18"/>
+      <c r="X32" s="18"/>
+      <c r="Y32" s="18"/>
     </row>
     <row r="33" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="B33" s="6"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="54">
+        <f>K8</f>
+        <v>70000</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E33" s="8"/>
+      <c r="F33" s="54">
+        <f>K12</f>
+        <v>2000</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="H33" s="8"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="51">
+        <v>3</v>
+      </c>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="8"/>
+      <c r="R33" s="18"/>
+      <c r="S33" s="18"/>
+      <c r="T33" s="18"/>
+      <c r="U33" s="18"/>
+      <c r="V33" s="18"/>
+      <c r="W33" s="18"/>
+      <c r="X33" s="18"/>
+      <c r="Y33" s="18"/>
       <c r="AO33" s="24"/>
       <c r="AP33" s="24"/>
       <c r="AQ33" s="24"/>
-      <c r="AR33" s="25"/>
+      <c r="AR33" s="24"/>
     </row>
     <row r="34" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="B34" s="31"/>
-      <c r="C34" s="59">
-        <v>45000</v>
-      </c>
-      <c r="D34" s="17"/>
-      <c r="E34" s="7" t="s">
-        <v>123</v>
-      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E34" s="7"/>
       <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
+      <c r="G34" s="7" t="s">
+        <v>99</v>
+      </c>
       <c r="H34" s="8"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="8"/>
+      <c r="Y34" s="18"/>
       <c r="AO34" s="24"/>
       <c r="AP34" s="24"/>
       <c r="AQ34" s="24"/>
+      <c r="AR34" s="24"/>
     </row>
     <row r="35" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B35" s="6"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
+      <c r="E35" s="28"/>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c r="H35" s="8"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="52" t="e">
+        <f>(C33+C36+F36+C39)/F33</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L35" s="28"/>
+      <c r="M35" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="8"/>
+      <c r="Y35" s="18"/>
       <c r="AO35" s="24"/>
+      <c r="AP35" s="24"/>
+      <c r="AQ35" s="24"/>
+      <c r="AR35" s="24"/>
     </row>
     <row r="36" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B36" s="31"/>
       <c r="C36" s="54">
-        <f>C34/V12</f>
-        <v>1125</v>
-      </c>
-      <c r="D36" s="17"/>
-      <c r="E36" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="F36" s="17"/>
-      <c r="G36" s="7"/>
+        <f>F26</f>
+        <v>5000</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E36" s="8"/>
+      <c r="F36" s="54" t="e">
+        <f>IF(#REF!="",#REF!,SUM(N27:N28))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>100</v>
+      </c>
       <c r="H36" s="8"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="8"/>
+      <c r="Y36" s="18"/>
       <c r="AO36" s="24"/>
+      <c r="AP36" s="24"/>
+      <c r="AQ36" s="24"/>
+      <c r="AR36" s="24"/>
     </row>
     <row r="37" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B37" s="6"/>
       <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
+      <c r="D37" s="7" t="s">
+        <v>97</v>
+      </c>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
+      <c r="G37" s="7" t="s">
+        <v>97</v>
+      </c>
       <c r="H37" s="8"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="52" t="e">
+        <f>C33+C36+F36+C39</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="8"/>
+      <c r="Y37" s="18"/>
       <c r="AO37" s="24"/>
+      <c r="AP37" s="24"/>
+      <c r="AQ37" s="24"/>
+      <c r="AR37" s="24"/>
     </row>
     <row r="38" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="B38" s="31"/>
-      <c r="C38" s="59">
-        <v>120000</v>
-      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="7"/>
       <c r="D38" s="7"/>
-      <c r="E38" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="F38" s="7"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
       <c r="G38" s="7"/>
       <c r="H38" s="8"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="8"/>
+      <c r="Y38" s="18"/>
       <c r="AO38" s="24"/>
+      <c r="AP38" s="24"/>
+      <c r="AQ38" s="24"/>
+      <c r="AR38" s="24"/>
     </row>
     <row r="39" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="B39" s="48"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="54">
+        <f>N22+N26</f>
+        <v>4125</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E39" s="28"/>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c r="H39" s="8"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="52" t="e">
+        <f>K37*K33</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="8"/>
+      <c r="Y39" s="18"/>
       <c r="AO39" s="24"/>
+      <c r="AP39" s="24"/>
+      <c r="AQ39" s="24"/>
+      <c r="AR39" s="24"/>
     </row>
     <row r="40" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="B40" s="31"/>
-      <c r="C40" s="54">
-        <f>C38/V12</f>
-        <v>3000</v>
-      </c>
+      <c r="B40" s="6"/>
+      <c r="C40" s="7"/>
       <c r="D40" s="7"/>
-      <c r="E40" s="7" t="s">
-        <v>126</v>
-      </c>
+      <c r="E40" s="28"/>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c r="H40" s="8"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="8"/>
+      <c r="Y40" s="18"/>
       <c r="AO40" s="24"/>
-    </row>
-    <row r="41" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="B41" s="6"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="8"/>
+      <c r="AP40" s="24"/>
+      <c r="AQ40" s="24"/>
+      <c r="AR40" s="24"/>
+    </row>
+    <row r="41" spans="2:44" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="9"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="11"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="11"/>
+      <c r="Y41" s="18"/>
       <c r="AO41" s="24"/>
-    </row>
-    <row r="42" spans="2:44" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="9"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="11"/>
+      <c r="AP41" s="24"/>
+      <c r="AQ41" s="24"/>
+      <c r="AR41" s="24"/>
+    </row>
+    <row r="42" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B42" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="AO42" s="24"/>
+      <c r="AP42" s="24"/>
+      <c r="AQ42" s="24"/>
+      <c r="AR42" s="24"/>
     </row>
     <row r="43" spans="2:44" x14ac:dyDescent="0.2">
       <c r="AO43" s="24"/>
+      <c r="AP43" s="24"/>
+      <c r="AQ43" s="24"/>
+      <c r="AR43" s="24"/>
     </row>
     <row r="44" spans="2:44" x14ac:dyDescent="0.2">
       <c r="AO44" s="24"/>
+      <c r="AP44" s="24"/>
+      <c r="AQ44" s="24"/>
+      <c r="AR44" s="25"/>
     </row>
     <row r="45" spans="2:44" x14ac:dyDescent="0.2">
       <c r="AO45" s="24"/>
+      <c r="AP45" s="24"/>
+      <c r="AQ45" s="24"/>
+      <c r="AR45" s="25"/>
     </row>
     <row r="46" spans="2:44" x14ac:dyDescent="0.2">
       <c r="AO46" s="24"/>
+      <c r="AP46" s="24"/>
+      <c r="AQ46" s="24"/>
     </row>
     <row r="47" spans="2:44" x14ac:dyDescent="0.2">
       <c r="AO47" s="24"/>
@@ -3305,13 +3420,9 @@
       <c r="AO64" s="24"/>
     </row>
     <row r="65" spans="26:41" x14ac:dyDescent="0.2">
-      <c r="Z65" s="23"/>
-      <c r="AD65" s="20"/>
-      <c r="AF65" s="22"/>
       <c r="AO65" s="24"/>
     </row>
     <row r="66" spans="26:41" x14ac:dyDescent="0.2">
-      <c r="AD66" s="20"/>
       <c r="AO66" s="24"/>
     </row>
     <row r="67" spans="26:41" x14ac:dyDescent="0.2">
@@ -3334,13 +3445,53 @@
     </row>
     <row r="73" spans="26:41" x14ac:dyDescent="0.2">
       <c r="AO73" s="24"/>
+    </row>
+    <row r="74" spans="26:41" x14ac:dyDescent="0.2">
+      <c r="AO74" s="24"/>
+    </row>
+    <row r="75" spans="26:41" x14ac:dyDescent="0.2">
+      <c r="AO75" s="24"/>
+    </row>
+    <row r="76" spans="26:41" x14ac:dyDescent="0.2">
+      <c r="AO76" s="24"/>
+    </row>
+    <row r="77" spans="26:41" x14ac:dyDescent="0.2">
+      <c r="Z77" s="23"/>
+      <c r="AD77" s="20"/>
+      <c r="AF77" s="22"/>
+      <c r="AO77" s="24"/>
+    </row>
+    <row r="78" spans="26:41" x14ac:dyDescent="0.2">
+      <c r="AD78" s="20"/>
+      <c r="AO78" s="24"/>
+    </row>
+    <row r="79" spans="26:41" x14ac:dyDescent="0.2">
+      <c r="AO79" s="24"/>
+    </row>
+    <row r="80" spans="26:41" x14ac:dyDescent="0.2">
+      <c r="AO80" s="24"/>
+    </row>
+    <row r="81" spans="41:41" x14ac:dyDescent="0.2">
+      <c r="AO81" s="24"/>
+    </row>
+    <row r="82" spans="41:41" x14ac:dyDescent="0.2">
+      <c r="AO82" s="24"/>
+    </row>
+    <row r="83" spans="41:41" x14ac:dyDescent="0.2">
+      <c r="AO83" s="24"/>
+    </row>
+    <row r="84" spans="41:41" x14ac:dyDescent="0.2">
+      <c r="AO84" s="24"/>
+    </row>
+    <row r="85" spans="41:41" x14ac:dyDescent="0.2">
+      <c r="AO85" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="F8:H8"/>
-    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="S18:X18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3362,37 +3513,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="69" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="69"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="71"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="72"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="74"/>
     </row>
     <row r="3" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="75" t="s">
         <v>101</v>
       </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="75"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="77"/>
     </row>
     <row r="4" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
